--- a/Lab2/IDDFS_Statistics.xlsx
+++ b/Lab2/IDDFS_Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xisung/Desktop/StudyHard/AlgorithmandDiscretMath/AI_XiS/Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD97432C-5231-EE48-9A1F-4EAF186C1261}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F9A294-FFFC-FB42-8B50-49DF08A80266}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{D90D93A5-F624-2649-BF64-C6C3107F3A8D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Density of Wall and Mud</t>
   </si>
@@ -43,6 +43,51 @@
   </si>
   <si>
     <t>Turn time</t>
+  </si>
+  <si>
+    <t>134/80/88</t>
+  </si>
+  <si>
+    <t>0.152404069900512/0.10479593276977539/0.041844844818115234</t>
+  </si>
+  <si>
+    <t>0.000232794391575144/0.00020003318786621094/0.00021274794231761587</t>
+  </si>
+  <si>
+    <t>58/82/62</t>
+  </si>
+  <si>
+    <t>0.0156919956207275/0.505202054977417/0.022513866424560547</t>
+  </si>
+  <si>
+    <t>0.000194372801945127/0.00020889247336038728/0.0001918577378795993</t>
+  </si>
+  <si>
+    <t>60/106/38</t>
+  </si>
+  <si>
+    <t>0.011913776397705/0.036708831787109375/0.0037691593170166016</t>
+  </si>
+  <si>
+    <t>0.000191505750020345/0.00022758177991183298/0.00018409678810521175</t>
+  </si>
+  <si>
+    <t>28/34/28</t>
+  </si>
+  <si>
+    <t>0.00500273704528808/0.005983829498291016/0.0034139156341552734</t>
+  </si>
+  <si>
+    <t>0.000165402889251708/0.0001796273624195772/0.0001852342060634068</t>
+  </si>
+  <si>
+    <t>14/16/10</t>
+  </si>
+  <si>
+    <t>0.00173068046569824/0.0015673637390136719/0.0012459754943847656</t>
+  </si>
+  <si>
+    <t>0.000175135476248604/0.00018280744552612305/0.00016605854034423828</t>
   </si>
 </sst>
 </file>
@@ -406,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7E527E-45C5-294F-8557-24E17EC5938A}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -451,14 +496,14 @@
       <c r="C2" s="2">
         <v>11</v>
       </c>
-      <c r="D2" s="2">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.73068046569824E-3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.7513547624860401E-4</v>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -471,14 +516,14 @@
       <c r="C3" s="2">
         <v>21</v>
       </c>
-      <c r="D3" s="2">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2">
-        <v>5.0027370452880799E-3</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1.6540288925170801E-4</v>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -491,14 +536,14 @@
       <c r="C4" s="2">
         <v>31</v>
       </c>
-      <c r="D4" s="2">
-        <v>60</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.1913776397705E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.91505750020345E-4</v>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -511,14 +556,14 @@
       <c r="C5" s="2">
         <v>41</v>
       </c>
-      <c r="D5" s="2">
-        <v>58</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.5691995620727501E-2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.9437280194512701E-4</v>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -531,14 +576,14 @@
       <c r="C6" s="2">
         <v>51</v>
       </c>
-      <c r="D6" s="2">
-        <v>134</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.152404069900512</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2.3279439157514401E-4</v>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Lab2/IDDFS_Statistics.xlsx
+++ b/Lab2/IDDFS_Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xisung/Desktop/StudyHard/AlgorithmandDiscretMath/AI_XiS/Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F9A294-FFFC-FB42-8B50-49DF08A80266}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3A201E-EF1C-C043-844B-B99D28BE3E89}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{D90D93A5-F624-2649-BF64-C6C3107F3A8D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Density of Wall and Mud</t>
   </si>
@@ -44,57 +44,12 @@
   <si>
     <t>Turn time</t>
   </si>
-  <si>
-    <t>134/80/88</t>
-  </si>
-  <si>
-    <t>0.152404069900512/0.10479593276977539/0.041844844818115234</t>
-  </si>
-  <si>
-    <t>0.000232794391575144/0.00020003318786621094/0.00021274794231761587</t>
-  </si>
-  <si>
-    <t>58/82/62</t>
-  </si>
-  <si>
-    <t>0.0156919956207275/0.505202054977417/0.022513866424560547</t>
-  </si>
-  <si>
-    <t>0.000194372801945127/0.00020889247336038728/0.0001918577378795993</t>
-  </si>
-  <si>
-    <t>60/106/38</t>
-  </si>
-  <si>
-    <t>0.011913776397705/0.036708831787109375/0.0037691593170166016</t>
-  </si>
-  <si>
-    <t>0.000191505750020345/0.00022758177991183298/0.00018409678810521175</t>
-  </si>
-  <si>
-    <t>28/34/28</t>
-  </si>
-  <si>
-    <t>0.00500273704528808/0.005983829498291016/0.0034139156341552734</t>
-  </si>
-  <si>
-    <t>0.000165402889251708/0.0001796273624195772/0.0001852342060634068</t>
-  </si>
-  <si>
-    <t>14/16/10</t>
-  </si>
-  <si>
-    <t>0.00173068046569824/0.0015673637390136719/0.0012459754943847656</t>
-  </si>
-  <si>
-    <t>0.000175135476248604/0.00018280744552612305/0.00016605854034423828</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +64,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF9AFA42"/>
+      <name val="Monaco"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,10 +92,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,7 +414,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,7 +448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -496,94 +458,94 @@
       <c r="C2" s="2">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
+      <c r="D2" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.6536712646484299E-3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3.19781658195314E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="D3" s="2">
+        <v>50.8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.46733999252319E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.8378201022260299E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
+      </c>
+      <c r="D4" s="2">
+        <v>83</v>
+      </c>
+      <c r="E4" s="3">
+        <v>8.6378383636474598E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.8775111098041201E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2">
-        <v>41</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="D5" s="2">
+        <v>126.4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.35945506095886198</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.83222616790219E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2">
-        <v>51</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
+        <v>91</v>
+      </c>
+      <c r="D6" s="2">
+        <v>176.6</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.6126048088073699</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.07851292427756E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Lab2/IDDFS_Statistics.xlsx
+++ b/Lab2/IDDFS_Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xisung/Desktop/StudyHard/AlgorithmandDiscretMath/AI_XiS/Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3A201E-EF1C-C043-844B-B99D28BE3E89}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB7C853-493A-6F45-BF9B-8C478D70595A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{D90D93A5-F624-2649-BF64-C6C3107F3A8D}"/>
   </bookViews>
